--- a/unity-tolua.xlsx
+++ b/unity-tolua.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
   <si>
     <t>Push(IntPtr L, UnityEngine.Object obj)</t>
   </si>
@@ -338,6 +338,14 @@
   </si>
   <si>
     <t>各种扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C#向LUA注册函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUA向c#注册函数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -697,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F85"/>
+  <dimension ref="A3:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1122,6 +1130,16 @@
         <v>44</v>
       </c>
     </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A117" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
